--- a/artfynd/A 60623-2022 artfynd.xlsx
+++ b/artfynd/A 60623-2022 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>131314804</v>
       </c>
       <c r="B2" t="n">
-        <v>91830</v>
+        <v>91833</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -1040,10 +1040,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131314701</v>
+        <v>131314793</v>
       </c>
       <c r="B5" t="n">
-        <v>57881</v>
+        <v>57884</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100049</v>
+        <v>100109</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -1083,10 +1083,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>498259</v>
+        <v>497983</v>
       </c>
       <c r="R5" t="n">
-        <v>6980592</v>
+        <v>6980361</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1123,7 +1123,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Rejäla hackspår, färska och äldre, i stambasen av en stående död gran med 41 cm i brösthöjdsdiameter.</t>
+          <t>Ringhack, färska, på gran.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1152,12 +1152,12 @@
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>Stående död trädstam/högstubbe</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>Standing dead tree/snags # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1301,10 +1301,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131314793</v>
+        <v>131314701</v>
       </c>
       <c r="B7" t="n">
-        <v>57884</v>
+        <v>57881</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1312,16 +1312,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100109</v>
+        <v>100049</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -1344,10 +1344,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>497983</v>
+        <v>498259</v>
       </c>
       <c r="R7" t="n">
-        <v>6980361</v>
+        <v>6980592</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1384,7 +1384,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>Ringhack, färska, på gran.</t>
+          <t>Rejäla hackspår, färska och äldre, i stambasen av en stående död gran med 41 cm i brösthöjdsdiameter.</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1413,12 +1413,12 @@
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Stående död trädstam/högstubbe</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Standing dead tree/snags # Picea abies</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1938,10 +1938,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131314703</v>
+        <v>131314697</v>
       </c>
       <c r="B12" t="n">
-        <v>91830</v>
+        <v>57884</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1949,24 +1949,29 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N12" t="inlineStr"/>
@@ -1976,10 +1981,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>498222</v>
+        <v>498259</v>
       </c>
       <c r="R12" t="n">
-        <v>6980602</v>
+        <v>6980588</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2016,7 +2021,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>Flera fruktkroppar i en klen stående död gran.</t>
+          <t>Ringhack, färska, enstaka några meter upp på en gran. Mycket högt livsmiljövärde för tretåig hackspett på fyndplatsen baserat på volym stående död ved.</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2025,7 +2030,6 @@
       <c r="AE12" t="b">
         <v>0</v>
       </c>
-      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
@@ -2034,11 +2038,6 @@
           <t>Barrskog</t>
         </is>
       </c>
-      <c r="AI12" t="inlineStr">
-        <is>
-          <t>Barrblandskog.</t>
-        </is>
-      </c>
       <c r="AJ12" t="inlineStr">
         <is>
           <t>gran</t>
@@ -2051,12 +2050,12 @@
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>Stående död trädstam/högstubbe</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>Standing dead tree/snags # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -2074,10 +2073,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131314697</v>
+        <v>131314703</v>
       </c>
       <c r="B13" t="n">
-        <v>57884</v>
+        <v>91833</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2085,29 +2084,24 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>färska spår</t>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
         </is>
       </c>
       <c r="N13" t="inlineStr"/>
@@ -2117,10 +2111,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>498259</v>
+        <v>498222</v>
       </c>
       <c r="R13" t="n">
-        <v>6980588</v>
+        <v>6980602</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2157,7 +2151,7 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>Ringhack, färska, enstaka några meter upp på en gran. Mycket högt livsmiljövärde för tretåig hackspett på fyndplatsen baserat på volym stående död ved.</t>
+          <t>Flera fruktkroppar i en klen stående död gran.</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2166,6 +2160,7 @@
       <c r="AE13" t="b">
         <v>0</v>
       </c>
+      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
@@ -2174,6 +2169,11 @@
           <t>Barrskog</t>
         </is>
       </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>Barrblandskog.</t>
+        </is>
+      </c>
       <c r="AJ13" t="inlineStr">
         <is>
           <t>gran</t>
@@ -2186,12 +2186,12 @@
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Stående död trädstam/högstubbe</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Standing dead tree/snags # Picea abies</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -2209,7 +2209,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131314705</v>
+        <v>131314706</v>
       </c>
       <c r="B14" t="n">
         <v>79245</v>
@@ -2247,10 +2247,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>498287</v>
+        <v>498236</v>
       </c>
       <c r="R14" t="n">
-        <v>6980614</v>
+        <v>6980588</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2287,7 +2287,7 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>Långväxta bålar på gran.</t>
+          <t>Intill andra hänglavar på gran.</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2335,7 +2335,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131314706</v>
+        <v>131314705</v>
       </c>
       <c r="B15" t="n">
         <v>79245</v>
@@ -2373,10 +2373,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>498236</v>
+        <v>498287</v>
       </c>
       <c r="R15" t="n">
-        <v>6980588</v>
+        <v>6980614</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>Intill andra hänglavar på gran.</t>
+          <t>Långväxta bålar på gran.</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2721,7 +2721,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131314782</v>
+        <v>131314777</v>
       </c>
       <c r="B18" t="n">
         <v>57884</v>
@@ -2764,10 +2764,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>498337</v>
+        <v>498308</v>
       </c>
       <c r="R18" t="n">
-        <v>6980543</v>
+        <v>6980576</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2851,7 +2851,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131314777</v>
+        <v>131314782</v>
       </c>
       <c r="B19" t="n">
         <v>57884</v>
@@ -2894,10 +2894,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>498308</v>
+        <v>498337</v>
       </c>
       <c r="R19" t="n">
-        <v>6980576</v>
+        <v>6980543</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -3371,7 +3371,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>131314789</v>
+        <v>131314786</v>
       </c>
       <c r="B23" t="n">
         <v>57884</v>
@@ -3404,7 +3404,7 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N23" t="inlineStr"/>
@@ -3414,10 +3414,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>498066</v>
+        <v>498353</v>
       </c>
       <c r="R23" t="n">
-        <v>6980381</v>
+        <v>6980511</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3454,7 +3454,7 @@
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>Ringhack, färska, på gran.</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3481,14 +3481,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM23" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr"/>
@@ -3506,7 +3501,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>131314786</v>
+        <v>131314778</v>
       </c>
       <c r="B24" t="n">
         <v>57884</v>
@@ -3549,10 +3544,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>498353</v>
+        <v>498277</v>
       </c>
       <c r="R24" t="n">
-        <v>6980511</v>
+        <v>6980549</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3636,7 +3631,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>131314778</v>
+        <v>131314789</v>
       </c>
       <c r="B25" t="n">
         <v>57884</v>
@@ -3669,7 +3664,7 @@
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N25" t="inlineStr"/>
@@ -3679,10 +3674,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>498277</v>
+        <v>498066</v>
       </c>
       <c r="R25" t="n">
-        <v>6980549</v>
+        <v>6980381</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3719,7 +3714,7 @@
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>Ringhack, färska, på gran.</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3746,9 +3741,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM25" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT25" t="inlineStr"/>
@@ -4161,7 +4161,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>131314783</v>
+        <v>131314779</v>
       </c>
       <c r="B29" t="n">
         <v>57884</v>
@@ -4204,10 +4204,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>498390</v>
+        <v>498295</v>
       </c>
       <c r="R29" t="n">
-        <v>6980556</v>
+        <v>6980533</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4291,7 +4291,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>131314779</v>
+        <v>131314783</v>
       </c>
       <c r="B30" t="n">
         <v>57884</v>
@@ -4334,10 +4334,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>498295</v>
+        <v>498390</v>
       </c>
       <c r="R30" t="n">
-        <v>6980533</v>
+        <v>6980556</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
